--- a/PW/R_against_voltage.xlsx
+++ b/PW/R_against_voltage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9087" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9087"/>
   </bookViews>
   <sheets>
     <sheet name="Voltage VS Current" sheetId="1" r:id="rId1"/>
@@ -3359,6 +3359,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="1800"/>
+              <a:t>Pump</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" sz="1800" baseline="0"/>
+              <a:t> Power against Voltage </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3372,7 +3402,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3411,7 +3441,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="0">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -3433,6 +3463,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3062724410609554E-3"/>
+                  <c:y val="0.39627449254858915"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3446,7 +3482,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -3465,74 +3501,80 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Voltage VS Current'!$A$10:$A$31</c:f>
+              <c:f>'Voltage VS Current'!$A$8:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>4.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>5.2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>5.4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3540,74 +3582,80 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Voltage VS Current'!$C$10:$C$31</c:f>
+              <c:f>'Voltage VS Current'!$C$8:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.49400000000000005</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.55999999999999994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.57000000000000006</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.64000000000000012</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.75600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.79799999999999993</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.88200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.92400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.96599999999999986</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.056</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1.1440000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1.1880000000000002</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>1.232</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>1.276</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>1.32</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>1.3640000000000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>1.4080000000000001</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>1.4950000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3617,6 +3665,86 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C2A4-4BA8-8D08-628BAD85FC35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Voltage VS Current'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Voltage VS Current'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0494-4303-B14C-BB5E7298622E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3635,6 +3763,7 @@
         <c:axId val="447535784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3652,6 +3781,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG" sz="1400"/>
+                  <a:t>Voltage/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3674,7 +3872,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3714,6 +3912,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG" sz="1400"/>
+                  <a:t>Power/W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -17642,16 +17909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>141816</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467782</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>27516</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154516</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18447,8 +18714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="C3:C31 A3:A31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -28438,7 +28705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
